--- a/DW_lista_adattatori_completa.xlsx
+++ b/DW_lista_adattatori_completa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61e8525196342f6/Desktop/app_adattatori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_DC3763789B4953D60A3B2495492BB808A4220A05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35963C1-7B55-4557-B1BF-C2554E057C91}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_DC3763789B4953D60A3B2495492BB808A4220A05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C432EE1-3ED1-4515-B831-CB96F0AB1B68}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7061" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="2403">
   <si>
     <t>ARTICOLO</t>
   </si>
@@ -7283,6 +7283,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7604,13 +7608,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="A622" sqref="A622:A697"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.5703125" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -27987,6 +27999,9 @@
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>2183</v>
+      </c>
       <c r="C622" t="s">
         <v>2183</v>
       </c>
@@ -28016,6 +28031,9 @@
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>2186</v>
+      </c>
       <c r="C623" t="s">
         <v>2186</v>
       </c>
@@ -28045,6 +28063,9 @@
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>2189</v>
+      </c>
       <c r="C624" t="s">
         <v>2189</v>
       </c>
@@ -28073,7 +28094,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>2191</v>
+      </c>
       <c r="C625" t="s">
         <v>2191</v>
       </c>
@@ -28102,7 +28126,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="626" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>2194</v>
+      </c>
       <c r="C626" t="s">
         <v>2194</v>
       </c>
@@ -28131,7 +28158,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>2198</v>
+      </c>
       <c r="C627" t="s">
         <v>2198</v>
       </c>
@@ -28160,7 +28190,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>2201</v>
+      </c>
       <c r="C628" t="s">
         <v>2201</v>
       </c>
@@ -28189,7 +28222,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="629" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>2205</v>
+      </c>
       <c r="C629" t="s">
         <v>2205</v>
       </c>
@@ -28218,7 +28254,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="630" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>2208</v>
+      </c>
       <c r="C630" t="s">
         <v>2208</v>
       </c>
@@ -28247,7 +28286,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="631" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>2211</v>
+      </c>
       <c r="C631" t="s">
         <v>2211</v>
       </c>
@@ -28276,7 +28318,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2214</v>
+      </c>
       <c r="C632" t="s">
         <v>2214</v>
       </c>
@@ -28305,7 +28350,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>2217</v>
+      </c>
       <c r="C633" t="s">
         <v>2217</v>
       </c>
@@ -28334,7 +28382,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="634" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>2220</v>
+      </c>
       <c r="C634" t="s">
         <v>2220</v>
       </c>
@@ -28363,7 +28414,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="635" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2223</v>
+      </c>
       <c r="C635" t="s">
         <v>2223</v>
       </c>
@@ -28392,7 +28446,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="636" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>2226</v>
+      </c>
       <c r="C636" t="s">
         <v>2226</v>
       </c>
@@ -28421,7 +28478,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>2229</v>
+      </c>
       <c r="C637" t="s">
         <v>2229</v>
       </c>
@@ -28450,7 +28510,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>2232</v>
+      </c>
       <c r="C638" t="s">
         <v>2232</v>
       </c>
@@ -28479,7 +28542,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>2234</v>
+      </c>
       <c r="C639" t="s">
         <v>2234</v>
       </c>
@@ -28508,7 +28574,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="640" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>2237</v>
+      </c>
       <c r="C640" t="s">
         <v>2237</v>
       </c>
@@ -28537,7 +28606,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>2240</v>
+      </c>
       <c r="C641" t="s">
         <v>2240</v>
       </c>
@@ -28566,7 +28638,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>2242</v>
+      </c>
       <c r="C642" t="s">
         <v>2242</v>
       </c>
@@ -28595,7 +28670,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>2244</v>
+      </c>
       <c r="C643" t="s">
         <v>2244</v>
       </c>
@@ -28624,7 +28702,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="644" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>2247</v>
+      </c>
       <c r="C644" t="s">
         <v>2247</v>
       </c>
@@ -28653,7 +28734,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>2250</v>
+      </c>
       <c r="C645" t="s">
         <v>2250</v>
       </c>
@@ -28682,7 +28766,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="646" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>2253</v>
+      </c>
       <c r="C646" t="s">
         <v>2253</v>
       </c>
@@ -28711,7 +28798,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="647" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>2256</v>
+      </c>
       <c r="C647" t="s">
         <v>2256</v>
       </c>
@@ -28740,7 +28830,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="648" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>2259</v>
+      </c>
       <c r="C648" t="s">
         <v>2259</v>
       </c>
@@ -28769,7 +28862,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="649" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>2262</v>
+      </c>
       <c r="C649" t="s">
         <v>2262</v>
       </c>
@@ -28798,7 +28894,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>2265</v>
+      </c>
       <c r="C650" t="s">
         <v>2265</v>
       </c>
@@ -28827,7 +28926,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="651" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>2267</v>
+      </c>
       <c r="C651" t="s">
         <v>2267</v>
       </c>
@@ -28856,7 +28958,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>2269</v>
+      </c>
       <c r="C652" t="s">
         <v>2269</v>
       </c>
@@ -28885,7 +28990,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="653" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>2271</v>
+      </c>
       <c r="C653" t="s">
         <v>2271</v>
       </c>
@@ -28914,7 +29022,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="654" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>2276</v>
+      </c>
       <c r="C654" t="s">
         <v>2276</v>
       </c>
@@ -28943,7 +29054,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>2279</v>
+      </c>
       <c r="C655" t="s">
         <v>2279</v>
       </c>
@@ -28972,7 +29086,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="656" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>2282</v>
+      </c>
       <c r="C656" t="s">
         <v>2282</v>
       </c>
@@ -29001,7 +29118,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="657" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>2285</v>
+      </c>
       <c r="C657" t="s">
         <v>2285</v>
       </c>
@@ -29030,7 +29150,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="658" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>2288</v>
+      </c>
       <c r="C658" t="s">
         <v>2288</v>
       </c>
@@ -29059,7 +29182,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="659" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>2291</v>
+      </c>
       <c r="C659" t="s">
         <v>2291</v>
       </c>
@@ -29088,7 +29214,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>2294</v>
+      </c>
       <c r="C660" t="s">
         <v>2294</v>
       </c>
@@ -29117,7 +29246,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="661" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>2297</v>
+      </c>
       <c r="C661" t="s">
         <v>2297</v>
       </c>
@@ -29146,7 +29278,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="662" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2300</v>
+      </c>
       <c r="C662" t="s">
         <v>2300</v>
       </c>
@@ -29175,7 +29310,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>2303</v>
+      </c>
       <c r="C663" t="s">
         <v>2303</v>
       </c>
@@ -29204,7 +29342,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>2307</v>
+      </c>
       <c r="C664" t="s">
         <v>2307</v>
       </c>
@@ -29233,7 +29374,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="665" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2309</v>
+      </c>
       <c r="C665" t="s">
         <v>2309</v>
       </c>
@@ -29262,7 +29406,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="666" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>2312</v>
+      </c>
       <c r="C666" t="s">
         <v>2312</v>
       </c>
@@ -29291,7 +29438,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>2315</v>
+      </c>
       <c r="C667" t="s">
         <v>2315</v>
       </c>
@@ -29320,7 +29470,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2318</v>
+      </c>
       <c r="C668" t="s">
         <v>2318</v>
       </c>
@@ -29349,7 +29502,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>2321</v>
+      </c>
       <c r="C669" t="s">
         <v>2321</v>
       </c>
@@ -29378,7 +29534,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>2324</v>
+      </c>
       <c r="C670" t="s">
         <v>2324</v>
       </c>
@@ -29407,7 +29566,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="671" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2327</v>
+      </c>
       <c r="C671" t="s">
         <v>2327</v>
       </c>
@@ -29436,7 +29598,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>2330</v>
+      </c>
       <c r="C672" t="s">
         <v>2330</v>
       </c>
@@ -29465,7 +29630,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>2333</v>
+      </c>
       <c r="C673" t="s">
         <v>2333</v>
       </c>
@@ -29494,7 +29662,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="674" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>2336</v>
+      </c>
       <c r="C674" t="s">
         <v>2336</v>
       </c>
@@ -29523,7 +29694,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="675" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>2339</v>
+      </c>
       <c r="C675" t="s">
         <v>2339</v>
       </c>
@@ -29552,7 +29726,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="676" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>2341</v>
+      </c>
       <c r="C676" t="s">
         <v>2341</v>
       </c>
@@ -29581,7 +29758,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>2342</v>
+      </c>
       <c r="C677" t="s">
         <v>2342</v>
       </c>
@@ -29610,7 +29790,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>2345</v>
+      </c>
       <c r="C678" t="s">
         <v>2345</v>
       </c>
@@ -29639,7 +29822,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>2348</v>
+      </c>
       <c r="C679" t="s">
         <v>2348</v>
       </c>
@@ -29668,7 +29854,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>2350</v>
+      </c>
       <c r="C680" t="s">
         <v>2350</v>
       </c>
@@ -29697,7 +29886,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>2353</v>
+      </c>
       <c r="C681" t="s">
         <v>2353</v>
       </c>
@@ -29726,7 +29918,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>2355</v>
+      </c>
       <c r="C682" t="s">
         <v>2355</v>
       </c>
@@ -29755,7 +29950,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="683" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>2360</v>
+      </c>
       <c r="C683" t="s">
         <v>2360</v>
       </c>
@@ -29784,7 +29982,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="684" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>2363</v>
+      </c>
       <c r="C684" t="s">
         <v>2363</v>
       </c>
@@ -29813,7 +30014,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="685" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>2366</v>
+      </c>
       <c r="C685" t="s">
         <v>2366</v>
       </c>
@@ -29842,7 +30046,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="686" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>2369</v>
+      </c>
       <c r="C686" t="s">
         <v>2369</v>
       </c>
@@ -29871,7 +30078,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>2372</v>
+      </c>
       <c r="C687" t="s">
         <v>2372</v>
       </c>
@@ -29900,7 +30110,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>2374</v>
+      </c>
       <c r="C688" t="s">
         <v>2374</v>
       </c>
@@ -29929,7 +30142,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="689" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>2377</v>
+      </c>
       <c r="C689" t="s">
         <v>2377</v>
       </c>
@@ -29958,7 +30174,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="690" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>2380</v>
+      </c>
       <c r="C690" t="s">
         <v>2380</v>
       </c>
@@ -29987,7 +30206,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="691" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>2383</v>
+      </c>
       <c r="C691" t="s">
         <v>2383</v>
       </c>
@@ -30016,7 +30238,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="692" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>2387</v>
+      </c>
       <c r="C692" t="s">
         <v>2387</v>
       </c>
@@ -30045,7 +30270,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="693" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>2389</v>
+      </c>
       <c r="C693" t="s">
         <v>2389</v>
       </c>
@@ -30074,7 +30302,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>2391</v>
+      </c>
       <c r="C694" t="s">
         <v>2391</v>
       </c>
@@ -30103,7 +30334,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>2394</v>
+      </c>
       <c r="C695" t="s">
         <v>2394</v>
       </c>
@@ -30132,7 +30366,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="696" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>2397</v>
+      </c>
       <c r="C696" t="s">
         <v>2397</v>
       </c>
@@ -30161,7 +30398,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="697" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>2400</v>
+      </c>
       <c r="C697" t="s">
         <v>2400</v>
       </c>

--- a/DW_lista_adattatori_completa.xlsx
+++ b/DW_lista_adattatori_completa.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61e8525196342f6/Desktop/app_adattatori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_7F18427F9B4953D60A3B2495492BB80864AB29F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CA3801-CB17-453C-9081-7EE38E168BCA}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_7F18427F9B4953D60A3B2495492BB80864AB29F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C0E0CBD-60F0-416F-B7E5-88032CD1CBC6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default_1" sheetId="1" r:id="rId1"/>
+    <sheet name="FILETTI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="2440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8026" uniqueCount="2461">
   <si>
     <t>Cd_Ar</t>
   </si>
@@ -7358,13 +7359,87 @@
   </si>
   <si>
     <t>ALL TERRAIN TRANSITION SUBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1/2" API IF (NC50) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-5/8" API IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1/2" API Reg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-5/8" API Reg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-5/8" API Reg </t>
+  </si>
+  <si>
+    <t>-------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4" API FULL Hole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4" API FULL Hole DS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1/2" API FULL Hole DS (DS55) </t>
+  </si>
+  <si>
+    <t>6-5/8" API FULL Hole DS (DS65)</t>
+  </si>
+  <si>
+    <t>3.95SS DW (AT120) (Pipe)</t>
+  </si>
+  <si>
+    <t>SPLK 350 M</t>
+  </si>
+  <si>
+    <t>VERMEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4 Acme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.375 VM Firestick (#625) (23x30) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.625 VM Firestick (#750) (40x55) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.875 VM Firestick 2 (#902) (55x100, 75x100) </t>
+  </si>
+  <si>
+    <t>RADIUS</t>
+  </si>
+  <si>
+    <t>ORDINE</t>
+  </si>
+  <si>
+    <t>ATTACCO</t>
+  </si>
+  <si>
+    <t>FAMIGLIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7390,13 +7465,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7735,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P625" sqref="P625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29986,6 +30069,9 @@
       <c r="A622" t="s">
         <v>2211</v>
       </c>
+      <c r="B622" t="s">
+        <v>2211</v>
+      </c>
       <c r="C622" t="s">
         <v>2212</v>
       </c>
@@ -30018,6 +30104,9 @@
       <c r="A623" t="s">
         <v>2215</v>
       </c>
+      <c r="B623" t="s">
+        <v>2215</v>
+      </c>
       <c r="C623" t="s">
         <v>2212</v>
       </c>
@@ -30050,6 +30139,9 @@
       <c r="A624" t="s">
         <v>2218</v>
       </c>
+      <c r="B624" t="s">
+        <v>2218</v>
+      </c>
       <c r="C624" t="s">
         <v>2212</v>
       </c>
@@ -30082,6 +30174,9 @@
       <c r="A625" t="s">
         <v>2220</v>
       </c>
+      <c r="B625" t="s">
+        <v>2220</v>
+      </c>
       <c r="C625" t="s">
         <v>2212</v>
       </c>
@@ -30114,6 +30209,9 @@
       <c r="A626" t="s">
         <v>2223</v>
       </c>
+      <c r="B626" t="s">
+        <v>2223</v>
+      </c>
       <c r="C626" t="s">
         <v>2212</v>
       </c>
@@ -30146,6 +30244,9 @@
       <c r="A627" t="s">
         <v>2227</v>
       </c>
+      <c r="B627" t="s">
+        <v>2227</v>
+      </c>
       <c r="C627" t="s">
         <v>2212</v>
       </c>
@@ -30178,6 +30279,9 @@
       <c r="A628" t="s">
         <v>2230</v>
       </c>
+      <c r="B628" t="s">
+        <v>2230</v>
+      </c>
       <c r="C628" t="s">
         <v>2212</v>
       </c>
@@ -30210,6 +30314,9 @@
       <c r="A629" t="s">
         <v>2234</v>
       </c>
+      <c r="B629" t="s">
+        <v>2234</v>
+      </c>
       <c r="C629" t="s">
         <v>2212</v>
       </c>
@@ -30242,6 +30349,9 @@
       <c r="A630" t="s">
         <v>2237</v>
       </c>
+      <c r="B630" t="s">
+        <v>2237</v>
+      </c>
       <c r="C630" t="s">
         <v>2212</v>
       </c>
@@ -30274,6 +30384,9 @@
       <c r="A631" t="s">
         <v>2240</v>
       </c>
+      <c r="B631" t="s">
+        <v>2240</v>
+      </c>
       <c r="C631" t="s">
         <v>2212</v>
       </c>
@@ -30306,6 +30419,9 @@
       <c r="A632" t="s">
         <v>2243</v>
       </c>
+      <c r="B632" t="s">
+        <v>2243</v>
+      </c>
       <c r="C632" t="s">
         <v>2212</v>
       </c>
@@ -30338,6 +30454,9 @@
       <c r="A633" t="s">
         <v>2246</v>
       </c>
+      <c r="B633" t="s">
+        <v>2246</v>
+      </c>
       <c r="C633" t="s">
         <v>2212</v>
       </c>
@@ -30370,6 +30489,9 @@
       <c r="A634" t="s">
         <v>2249</v>
       </c>
+      <c r="B634" t="s">
+        <v>2249</v>
+      </c>
       <c r="C634" t="s">
         <v>2212</v>
       </c>
@@ -30402,6 +30524,9 @@
       <c r="A635" t="s">
         <v>2252</v>
       </c>
+      <c r="B635" t="s">
+        <v>2252</v>
+      </c>
       <c r="C635" t="s">
         <v>2212</v>
       </c>
@@ -30434,6 +30559,9 @@
       <c r="A636" t="s">
         <v>2255</v>
       </c>
+      <c r="B636" t="s">
+        <v>2255</v>
+      </c>
       <c r="C636" t="s">
         <v>2212</v>
       </c>
@@ -30466,6 +30594,9 @@
       <c r="A637" t="s">
         <v>2258</v>
       </c>
+      <c r="B637" t="s">
+        <v>2258</v>
+      </c>
       <c r="C637" t="s">
         <v>2212</v>
       </c>
@@ -30498,6 +30629,9 @@
       <c r="A638" t="s">
         <v>2261</v>
       </c>
+      <c r="B638" t="s">
+        <v>2261</v>
+      </c>
       <c r="C638" t="s">
         <v>2212</v>
       </c>
@@ -30530,6 +30664,9 @@
       <c r="A639" t="s">
         <v>2263</v>
       </c>
+      <c r="B639" t="s">
+        <v>2263</v>
+      </c>
       <c r="C639" t="s">
         <v>2212</v>
       </c>
@@ -30562,6 +30699,9 @@
       <c r="A640" t="s">
         <v>2266</v>
       </c>
+      <c r="B640" t="s">
+        <v>2266</v>
+      </c>
       <c r="C640" t="s">
         <v>2212</v>
       </c>
@@ -30594,6 +30734,9 @@
       <c r="A641" t="s">
         <v>2269</v>
       </c>
+      <c r="B641" t="s">
+        <v>2269</v>
+      </c>
       <c r="C641" t="s">
         <v>2212</v>
       </c>
@@ -30626,6 +30769,9 @@
       <c r="A642" t="s">
         <v>2271</v>
       </c>
+      <c r="B642" t="s">
+        <v>2271</v>
+      </c>
       <c r="C642" t="s">
         <v>2212</v>
       </c>
@@ -30658,6 +30804,9 @@
       <c r="A643" t="s">
         <v>2273</v>
       </c>
+      <c r="B643" t="s">
+        <v>2273</v>
+      </c>
       <c r="C643" t="s">
         <v>2212</v>
       </c>
@@ -30690,6 +30839,9 @@
       <c r="A644" t="s">
         <v>2276</v>
       </c>
+      <c r="B644" t="s">
+        <v>2276</v>
+      </c>
       <c r="C644" t="s">
         <v>2212</v>
       </c>
@@ -30722,6 +30874,9 @@
       <c r="A645" t="s">
         <v>2279</v>
       </c>
+      <c r="B645" t="s">
+        <v>2279</v>
+      </c>
       <c r="C645" t="s">
         <v>2212</v>
       </c>
@@ -30754,6 +30909,9 @@
       <c r="A646" t="s">
         <v>2282</v>
       </c>
+      <c r="B646" t="s">
+        <v>2282</v>
+      </c>
       <c r="C646" t="s">
         <v>2212</v>
       </c>
@@ -30786,6 +30944,9 @@
       <c r="A647" t="s">
         <v>2285</v>
       </c>
+      <c r="B647" t="s">
+        <v>2285</v>
+      </c>
       <c r="C647" t="s">
         <v>2212</v>
       </c>
@@ -30818,6 +30979,9 @@
       <c r="A648" t="s">
         <v>2288</v>
       </c>
+      <c r="B648" t="s">
+        <v>2288</v>
+      </c>
       <c r="C648" t="s">
         <v>2212</v>
       </c>
@@ -30850,6 +31014,9 @@
       <c r="A649" t="s">
         <v>2291</v>
       </c>
+      <c r="B649" t="s">
+        <v>2291</v>
+      </c>
       <c r="C649" t="s">
         <v>2212</v>
       </c>
@@ -30882,6 +31049,9 @@
       <c r="A650" t="s">
         <v>2294</v>
       </c>
+      <c r="B650" t="s">
+        <v>2294</v>
+      </c>
       <c r="C650" t="s">
         <v>2212</v>
       </c>
@@ -30914,6 +31084,9 @@
       <c r="A651" t="s">
         <v>2296</v>
       </c>
+      <c r="B651" t="s">
+        <v>2296</v>
+      </c>
       <c r="C651" t="s">
         <v>2212</v>
       </c>
@@ -30946,6 +31119,9 @@
       <c r="A652" t="s">
         <v>2298</v>
       </c>
+      <c r="B652" t="s">
+        <v>2298</v>
+      </c>
       <c r="C652" t="s">
         <v>2212</v>
       </c>
@@ -30978,6 +31154,9 @@
       <c r="A653" t="s">
         <v>2300</v>
       </c>
+      <c r="B653" t="s">
+        <v>2300</v>
+      </c>
       <c r="C653" t="s">
         <v>2212</v>
       </c>
@@ -31010,6 +31189,9 @@
       <c r="A654" t="s">
         <v>2305</v>
       </c>
+      <c r="B654" t="s">
+        <v>2305</v>
+      </c>
       <c r="C654" t="s">
         <v>2212</v>
       </c>
@@ -31042,6 +31224,9 @@
       <c r="A655" t="s">
         <v>2308</v>
       </c>
+      <c r="B655" t="s">
+        <v>2308</v>
+      </c>
       <c r="C655" t="s">
         <v>2212</v>
       </c>
@@ -31074,6 +31259,9 @@
       <c r="A656" t="s">
         <v>2311</v>
       </c>
+      <c r="B656" t="s">
+        <v>2311</v>
+      </c>
       <c r="C656" t="s">
         <v>2212</v>
       </c>
@@ -31106,6 +31294,9 @@
       <c r="A657" t="s">
         <v>2314</v>
       </c>
+      <c r="B657" t="s">
+        <v>2314</v>
+      </c>
       <c r="C657" t="s">
         <v>2212</v>
       </c>
@@ -31138,6 +31329,9 @@
       <c r="A658" t="s">
         <v>2317</v>
       </c>
+      <c r="B658" t="s">
+        <v>2317</v>
+      </c>
       <c r="C658" t="s">
         <v>2212</v>
       </c>
@@ -31170,6 +31364,9 @@
       <c r="A659" t="s">
         <v>2320</v>
       </c>
+      <c r="B659" t="s">
+        <v>2320</v>
+      </c>
       <c r="C659" t="s">
         <v>2212</v>
       </c>
@@ -31202,6 +31399,9 @@
       <c r="A660" t="s">
         <v>2323</v>
       </c>
+      <c r="B660" t="s">
+        <v>2323</v>
+      </c>
       <c r="C660" t="s">
         <v>2212</v>
       </c>
@@ -31234,6 +31434,9 @@
       <c r="A661" t="s">
         <v>2326</v>
       </c>
+      <c r="B661" t="s">
+        <v>2326</v>
+      </c>
       <c r="C661" t="s">
         <v>2212</v>
       </c>
@@ -31266,6 +31469,9 @@
       <c r="A662" t="s">
         <v>2329</v>
       </c>
+      <c r="B662" t="s">
+        <v>2329</v>
+      </c>
       <c r="C662" t="s">
         <v>2212</v>
       </c>
@@ -31298,6 +31504,9 @@
       <c r="A663" t="s">
         <v>2332</v>
       </c>
+      <c r="B663" t="s">
+        <v>2332</v>
+      </c>
       <c r="C663" t="s">
         <v>2212</v>
       </c>
@@ -31330,6 +31539,9 @@
       <c r="A664" t="s">
         <v>2336</v>
       </c>
+      <c r="B664" t="s">
+        <v>2336</v>
+      </c>
       <c r="C664" t="s">
         <v>2212</v>
       </c>
@@ -31362,6 +31574,9 @@
       <c r="A665" t="s">
         <v>2338</v>
       </c>
+      <c r="B665" t="s">
+        <v>2338</v>
+      </c>
       <c r="C665" t="s">
         <v>2212</v>
       </c>
@@ -31394,6 +31609,9 @@
       <c r="A666" t="s">
         <v>2341</v>
       </c>
+      <c r="B666" t="s">
+        <v>2341</v>
+      </c>
       <c r="C666" t="s">
         <v>2212</v>
       </c>
@@ -31426,6 +31644,9 @@
       <c r="A667" t="s">
         <v>2344</v>
       </c>
+      <c r="B667" t="s">
+        <v>2344</v>
+      </c>
       <c r="C667" t="s">
         <v>2212</v>
       </c>
@@ -31458,6 +31679,9 @@
       <c r="A668" t="s">
         <v>2347</v>
       </c>
+      <c r="B668" t="s">
+        <v>2347</v>
+      </c>
       <c r="C668" t="s">
         <v>2212</v>
       </c>
@@ -31490,6 +31714,9 @@
       <c r="A669" t="s">
         <v>2350</v>
       </c>
+      <c r="B669" t="s">
+        <v>2350</v>
+      </c>
       <c r="C669" t="s">
         <v>2212</v>
       </c>
@@ -31522,6 +31749,9 @@
       <c r="A670" t="s">
         <v>2353</v>
       </c>
+      <c r="B670" t="s">
+        <v>2353</v>
+      </c>
       <c r="C670" t="s">
         <v>2212</v>
       </c>
@@ -31554,6 +31784,9 @@
       <c r="A671" t="s">
         <v>2356</v>
       </c>
+      <c r="B671" t="s">
+        <v>2356</v>
+      </c>
       <c r="C671" t="s">
         <v>2212</v>
       </c>
@@ -31586,6 +31819,9 @@
       <c r="A672" t="s">
         <v>2359</v>
       </c>
+      <c r="B672" t="s">
+        <v>2359</v>
+      </c>
       <c r="C672" t="s">
         <v>2212</v>
       </c>
@@ -31618,6 +31854,9 @@
       <c r="A673" t="s">
         <v>2362</v>
       </c>
+      <c r="B673" t="s">
+        <v>2362</v>
+      </c>
       <c r="C673" t="s">
         <v>2212</v>
       </c>
@@ -31650,6 +31889,9 @@
       <c r="A674" t="s">
         <v>2365</v>
       </c>
+      <c r="B674" t="s">
+        <v>2365</v>
+      </c>
       <c r="C674" t="s">
         <v>2212</v>
       </c>
@@ -31682,6 +31924,9 @@
       <c r="A675" t="s">
         <v>2368</v>
       </c>
+      <c r="B675" t="s">
+        <v>2368</v>
+      </c>
       <c r="C675" t="s">
         <v>2212</v>
       </c>
@@ -31714,6 +31959,9 @@
       <c r="A676" t="s">
         <v>2368</v>
       </c>
+      <c r="B676" t="s">
+        <v>2368</v>
+      </c>
       <c r="C676" t="s">
         <v>2212</v>
       </c>
@@ -31746,6 +31994,9 @@
       <c r="A677" t="s">
         <v>2370</v>
       </c>
+      <c r="B677" t="s">
+        <v>2370</v>
+      </c>
       <c r="C677" t="s">
         <v>2212</v>
       </c>
@@ -31778,6 +32029,9 @@
       <c r="A678" t="s">
         <v>2373</v>
       </c>
+      <c r="B678" t="s">
+        <v>2373</v>
+      </c>
       <c r="C678" t="s">
         <v>2212</v>
       </c>
@@ -31810,6 +32064,9 @@
       <c r="A679" t="s">
         <v>2376</v>
       </c>
+      <c r="B679" t="s">
+        <v>2376</v>
+      </c>
       <c r="C679" t="s">
         <v>2212</v>
       </c>
@@ -31842,6 +32099,9 @@
       <c r="A680" t="s">
         <v>2378</v>
       </c>
+      <c r="B680" t="s">
+        <v>2378</v>
+      </c>
       <c r="C680" t="s">
         <v>2212</v>
       </c>
@@ -31874,6 +32134,9 @@
       <c r="A681" t="s">
         <v>2381</v>
       </c>
+      <c r="B681" t="s">
+        <v>2381</v>
+      </c>
       <c r="C681" t="s">
         <v>2212</v>
       </c>
@@ -31906,6 +32169,9 @@
       <c r="A682" t="s">
         <v>2383</v>
       </c>
+      <c r="B682" t="s">
+        <v>2383</v>
+      </c>
       <c r="C682" t="s">
         <v>2212</v>
       </c>
@@ -31938,6 +32204,9 @@
       <c r="A683" t="s">
         <v>2388</v>
       </c>
+      <c r="B683" t="s">
+        <v>2388</v>
+      </c>
       <c r="C683" t="s">
         <v>2212</v>
       </c>
@@ -31970,6 +32239,9 @@
       <c r="A684" t="s">
         <v>2391</v>
       </c>
+      <c r="B684" t="s">
+        <v>2391</v>
+      </c>
       <c r="C684" t="s">
         <v>2212</v>
       </c>
@@ -32002,6 +32274,9 @@
       <c r="A685" t="s">
         <v>2394</v>
       </c>
+      <c r="B685" t="s">
+        <v>2394</v>
+      </c>
       <c r="C685" t="s">
         <v>2212</v>
       </c>
@@ -32034,6 +32309,9 @@
       <c r="A686" t="s">
         <v>2397</v>
       </c>
+      <c r="B686" t="s">
+        <v>2397</v>
+      </c>
       <c r="C686" t="s">
         <v>2212</v>
       </c>
@@ -32066,6 +32344,9 @@
       <c r="A687" t="s">
         <v>2400</v>
       </c>
+      <c r="B687" t="s">
+        <v>2400</v>
+      </c>
       <c r="C687" t="s">
         <v>2212</v>
       </c>
@@ -32098,6 +32379,9 @@
       <c r="A688" t="s">
         <v>2402</v>
       </c>
+      <c r="B688" t="s">
+        <v>2402</v>
+      </c>
       <c r="C688" t="s">
         <v>2212</v>
       </c>
@@ -32130,6 +32414,9 @@
       <c r="A689" t="s">
         <v>2405</v>
       </c>
+      <c r="B689" t="s">
+        <v>2405</v>
+      </c>
       <c r="C689" t="s">
         <v>2212</v>
       </c>
@@ -32162,6 +32449,9 @@
       <c r="A690" t="s">
         <v>2408</v>
       </c>
+      <c r="B690" t="s">
+        <v>2408</v>
+      </c>
       <c r="C690" t="s">
         <v>2212</v>
       </c>
@@ -32194,6 +32484,9 @@
       <c r="A691" t="s">
         <v>2411</v>
       </c>
+      <c r="B691" t="s">
+        <v>2411</v>
+      </c>
       <c r="C691" t="s">
         <v>2212</v>
       </c>
@@ -32226,6 +32519,9 @@
       <c r="A692" t="s">
         <v>2415</v>
       </c>
+      <c r="B692" t="s">
+        <v>2415</v>
+      </c>
       <c r="C692" t="s">
         <v>2212</v>
       </c>
@@ -32258,6 +32554,9 @@
       <c r="A693" t="s">
         <v>2417</v>
       </c>
+      <c r="B693" t="s">
+        <v>2417</v>
+      </c>
       <c r="C693" t="s">
         <v>2212</v>
       </c>
@@ -32290,6 +32589,9 @@
       <c r="A694" t="s">
         <v>2419</v>
       </c>
+      <c r="B694" t="s">
+        <v>2419</v>
+      </c>
       <c r="C694" t="s">
         <v>2212</v>
       </c>
@@ -32322,6 +32624,9 @@
       <c r="A695" t="s">
         <v>2422</v>
       </c>
+      <c r="B695" t="s">
+        <v>2422</v>
+      </c>
       <c r="C695" t="s">
         <v>2212</v>
       </c>
@@ -32354,6 +32659,9 @@
       <c r="A696" t="s">
         <v>2425</v>
       </c>
+      <c r="B696" t="s">
+        <v>2425</v>
+      </c>
       <c r="C696" t="s">
         <v>2212</v>
       </c>
@@ -32384,6 +32692,9 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B697" t="s">
         <v>2428</v>
       </c>
       <c r="C697" t="s">
@@ -32418,4 +32729,1116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52D310A-6248-4095-A2C1-4795801B88C6}">
+  <dimension ref="A1:C104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C26" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C27" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C31" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C33" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C35" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C37" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C38" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C41" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C52" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C62" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C64" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C65" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C66" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DW_lista_adattatori_completa.xlsx
+++ b/DW_lista_adattatori_completa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61e8525196342f6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_37CAC2659B4953D60A3B2495492BB80894A181F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE269FBA-E16D-45B3-B0EB-5A56C45DE08D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_1BD5C27C9B4953D60A3B2495492BB80874217B01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D53AA5-5228-41BE-92C7-9AEB3847B196}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default_1" sheetId="1" r:id="rId1"/>
@@ -1257,7 +1257,7 @@
     <t>2.625 VM Firestick (#700) (36x50)</t>
   </si>
   <si>
-    <t>_</t>
+    <t/>
   </si>
   <si>
     <t>RA908-4279</t>
@@ -7776,7 +7776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32683,16 +32683,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1488E377-79DF-42AC-9F51-F192347B0CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E2EB69-E05D-45FB-8D31-170648EC3B66}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/DW_lista_adattatori_completa.xlsx
+++ b/DW_lista_adattatori_completa.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61e8525196342f6/Desktop/app_adattatori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FF4DCBAFC7F357E7E66A48FB1A45874E9EBBFFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FF4DCBAFC7F357E7E66A48FB1A45874E9EBBFFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5AE8ECD-D459-4182-A30D-23A557E2301B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default_1" sheetId="1" r:id="rId1"/>
     <sheet name="FILETTI" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">default_1!$A$1:$M$696</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8830" uniqueCount="2665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8833" uniqueCount="2665">
   <si>
     <t>Category</t>
   </si>
@@ -8392,9 +8395,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M696"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L701" sqref="L701"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8439,7 +8445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8477,7 +8483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8515,7 +8521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8553,7 +8559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -8591,7 +8597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8673,7 +8679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -8714,7 +8720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8793,7 +8799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -8834,7 +8840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -8913,7 +8919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -9197,7 +9203,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -9279,7 +9285,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -9358,7 +9364,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -9434,7 +9440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -9510,7 +9516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -9586,7 +9592,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>220</v>
       </c>
@@ -9662,7 +9668,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -9700,7 +9706,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -9738,7 +9744,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -9776,7 +9782,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>220</v>
       </c>
@@ -9814,7 +9820,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>246</v>
       </c>
@@ -9852,7 +9858,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>246</v>
       </c>
@@ -9890,7 +9896,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>259</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -9966,7 +9972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>268</v>
       </c>
@@ -10004,7 +10010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>275</v>
       </c>
@@ -10083,7 +10089,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -10121,7 +10127,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -10159,7 +10165,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -10194,7 +10200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -10235,7 +10241,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -10270,7 +10276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>310</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -10349,7 +10355,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>330</v>
       </c>
@@ -10463,7 +10469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -10501,7 +10507,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -10539,7 +10545,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -10577,7 +10583,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -10732,7 +10738,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>310</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -10811,7 +10817,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -10852,7 +10858,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -10893,7 +10899,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>246</v>
       </c>
@@ -10972,7 +10978,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>403</v>
       </c>
@@ -11013,7 +11019,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -11051,7 +11057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -11092,7 +11098,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>418</v>
       </c>
@@ -11168,7 +11174,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -11206,7 +11212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -11244,7 +11250,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -11282,7 +11288,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -11320,7 +11326,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -11358,7 +11364,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -11396,7 +11402,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>246</v>
       </c>
@@ -11434,7 +11440,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>461</v>
       </c>
@@ -11475,7 +11481,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -11513,7 +11519,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>474</v>
       </c>
@@ -11592,7 +11598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -11630,7 +11636,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -11668,7 +11674,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -11709,7 +11715,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -11747,7 +11753,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -11785,7 +11791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -11861,7 +11867,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -11899,7 +11905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -11937,7 +11943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -11978,7 +11984,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -12016,7 +12022,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -12054,7 +12060,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -12092,7 +12098,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -12130,7 +12136,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -12168,7 +12174,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -12206,7 +12212,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -12247,7 +12253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -12285,7 +12291,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -12361,7 +12367,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -12399,7 +12405,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>474</v>
       </c>
@@ -12440,7 +12446,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>565</v>
       </c>
@@ -12478,7 +12484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>565</v>
       </c>
@@ -12516,7 +12522,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -12557,7 +12563,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -12595,7 +12601,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -12633,7 +12639,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>565</v>
       </c>
@@ -12671,7 +12677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -12709,7 +12715,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -12785,7 +12791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>220</v>
       </c>
@@ -12823,7 +12829,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>101</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -12899,7 +12905,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -12937,7 +12943,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -12975,7 +12981,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -13013,7 +13019,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -13051,7 +13057,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -13089,7 +13095,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -13127,7 +13133,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>310</v>
       </c>
@@ -13168,7 +13174,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -13206,7 +13212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>41</v>
       </c>
@@ -13244,7 +13250,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>41</v>
       </c>
@@ -13282,7 +13288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>41</v>
       </c>
@@ -13396,7 +13402,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -13434,7 +13440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -13510,7 +13516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -13586,7 +13592,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -13624,7 +13630,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -13662,7 +13668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>91</v>
       </c>
@@ -13703,7 +13709,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>330</v>
       </c>
@@ -13741,7 +13747,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -13779,7 +13785,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -13817,7 +13823,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -13855,7 +13861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>246</v>
       </c>
@@ -13893,7 +13899,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>83</v>
       </c>
@@ -13934,7 +13940,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>101</v>
       </c>
@@ -13972,7 +13978,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>41</v>
       </c>
@@ -14010,7 +14016,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>41</v>
       </c>
@@ -14048,7 +14054,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -14086,7 +14092,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -14124,7 +14130,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -14162,7 +14168,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>220</v>
       </c>
@@ -14200,7 +14206,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>220</v>
       </c>
@@ -14238,7 +14244,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>565</v>
       </c>
@@ -14276,7 +14282,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>41</v>
       </c>
@@ -14314,7 +14320,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>41</v>
       </c>
@@ -14352,7 +14358,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>461</v>
       </c>
@@ -14431,7 +14437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -14469,7 +14475,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>41</v>
       </c>
@@ -14507,7 +14513,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -14545,7 +14551,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>418</v>
       </c>
@@ -14586,7 +14592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>220</v>
       </c>
@@ -14624,7 +14630,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>220</v>
       </c>
@@ -14662,7 +14668,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>461</v>
       </c>
@@ -14703,7 +14709,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>418</v>
       </c>
@@ -14744,7 +14750,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -14782,7 +14788,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>310</v>
       </c>
@@ -14823,7 +14829,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>101</v>
       </c>
@@ -14861,7 +14867,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -14899,7 +14905,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>246</v>
       </c>
@@ -14937,7 +14943,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -14975,7 +14981,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>41</v>
       </c>
@@ -15013,7 +15019,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>418</v>
       </c>
@@ -15054,7 +15060,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>275</v>
       </c>
@@ -15095,7 +15101,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>41</v>
       </c>
@@ -15133,7 +15139,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>246</v>
       </c>
@@ -15171,7 +15177,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>330</v>
       </c>
@@ -15209,7 +15215,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>565</v>
       </c>
@@ -15247,7 +15253,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -15285,7 +15291,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>41</v>
       </c>
@@ -15323,7 +15329,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>41</v>
       </c>
@@ -15361,7 +15367,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>41</v>
       </c>
@@ -15399,7 +15405,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -15437,7 +15443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -15475,7 +15481,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -15513,7 +15519,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -15554,7 +15560,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -15592,7 +15598,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>41</v>
       </c>
@@ -15630,7 +15636,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>220</v>
       </c>
@@ -15668,7 +15674,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>41</v>
       </c>
@@ -15706,7 +15712,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>41</v>
       </c>
@@ -15744,7 +15750,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -15782,7 +15788,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>41</v>
       </c>
@@ -15820,7 +15826,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>41</v>
       </c>
@@ -15858,7 +15864,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -15896,7 +15902,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>41</v>
       </c>
@@ -15934,7 +15940,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -15972,7 +15978,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>565</v>
       </c>
@@ -16010,7 +16016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>330</v>
       </c>
@@ -16048,7 +16054,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>101</v>
       </c>
@@ -16086,7 +16092,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>923</v>
       </c>
@@ -16127,7 +16133,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>565</v>
       </c>
@@ -16165,7 +16171,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -16203,7 +16209,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>246</v>
       </c>
@@ -16241,7 +16247,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -16279,7 +16285,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>246</v>
       </c>
@@ -16317,7 +16323,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -16355,7 +16361,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>41</v>
       </c>
@@ -16393,7 +16399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -16431,7 +16437,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>330</v>
       </c>
@@ -16469,7 +16475,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>41</v>
       </c>
@@ -16507,7 +16513,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>330</v>
       </c>
@@ -16545,7 +16551,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>41</v>
       </c>
@@ -16583,7 +16589,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>387</v>
       </c>
@@ -16624,7 +16630,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>330</v>
       </c>
@@ -16662,7 +16668,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>101</v>
       </c>
@@ -16700,7 +16706,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>330</v>
       </c>
@@ -16738,7 +16744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>83</v>
       </c>
@@ -16779,7 +16785,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>41</v>
       </c>
@@ -16817,7 +16823,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>41</v>
       </c>
@@ -16855,7 +16861,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>41</v>
       </c>
@@ -16893,7 +16899,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>246</v>
       </c>
@@ -16931,7 +16937,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>41</v>
       </c>
@@ -16969,7 +16975,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -17007,7 +17013,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>41</v>
       </c>
@@ -17045,7 +17051,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>41</v>
       </c>
@@ -17083,7 +17089,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>41</v>
       </c>
@@ -17121,7 +17127,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>923</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -17200,7 +17206,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>41</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>41</v>
       </c>
@@ -17276,7 +17282,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -17314,7 +17320,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>41</v>
       </c>
@@ -17352,7 +17358,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>418</v>
       </c>
@@ -17393,7 +17399,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>418</v>
       </c>
@@ -17434,7 +17440,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -17472,7 +17478,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -17510,7 +17516,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -17548,7 +17554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>101</v>
       </c>
@@ -17586,7 +17592,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -17624,7 +17630,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>168</v>
       </c>
@@ -17700,7 +17706,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -17738,7 +17744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -17776,7 +17782,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -17817,7 +17823,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -17858,7 +17864,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>330</v>
       </c>
@@ -17934,7 +17940,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>461</v>
       </c>
@@ -17975,7 +17981,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1100</v>
       </c>
@@ -18016,7 +18022,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>461</v>
       </c>
@@ -18057,7 +18063,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>461</v>
       </c>
@@ -18098,7 +18104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>461</v>
       </c>
@@ -18139,7 +18145,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>246</v>
       </c>
@@ -18177,7 +18183,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>461</v>
       </c>
@@ -18218,7 +18224,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1125</v>
       </c>
@@ -18259,7 +18265,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>101</v>
       </c>
@@ -18297,7 +18303,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>461</v>
       </c>
@@ -18338,7 +18344,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>418</v>
       </c>
@@ -18379,7 +18385,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>220</v>
       </c>
@@ -18417,7 +18423,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -18455,7 +18461,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>246</v>
       </c>
@@ -18493,7 +18499,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -18531,7 +18537,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>41</v>
       </c>
@@ -18569,7 +18575,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>130</v>
       </c>
@@ -18610,7 +18616,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>91</v>
       </c>
@@ -18651,7 +18657,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -18689,7 +18695,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>41</v>
       </c>
@@ -18727,7 +18733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>310</v>
       </c>
@@ -18768,7 +18774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>41</v>
       </c>
@@ -18806,7 +18812,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>41</v>
       </c>
@@ -18844,7 +18850,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>246</v>
       </c>
@@ -18882,7 +18888,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -18920,7 +18926,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>246</v>
       </c>
@@ -18958,7 +18964,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>923</v>
       </c>
@@ -18999,7 +19005,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -19037,7 +19043,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -19075,7 +19081,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -19113,7 +19119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -19151,7 +19157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1210</v>
       </c>
@@ -19192,7 +19198,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1210</v>
       </c>
@@ -19233,7 +19239,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1210</v>
       </c>
@@ -19274,7 +19280,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1210</v>
       </c>
@@ -19315,7 +19321,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1210</v>
       </c>
@@ -19356,7 +19362,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -19394,7 +19400,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>41</v>
       </c>
@@ -19432,7 +19438,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -19470,7 +19476,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1210</v>
       </c>
@@ -19511,7 +19517,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1210</v>
       </c>
@@ -19552,7 +19558,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1210</v>
       </c>
@@ -19593,7 +19599,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1210</v>
       </c>
@@ -19634,7 +19640,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1210</v>
       </c>
@@ -19675,7 +19681,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1210</v>
       </c>
@@ -19716,7 +19722,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1210</v>
       </c>
@@ -19757,7 +19763,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1210</v>
       </c>
@@ -19798,7 +19804,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1210</v>
       </c>
@@ -19839,7 +19845,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1210</v>
       </c>
@@ -19880,7 +19886,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1210</v>
       </c>
@@ -19921,7 +19927,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1210</v>
       </c>
@@ -19962,7 +19968,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>41</v>
       </c>
@@ -20000,7 +20006,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>83</v>
       </c>
@@ -20041,7 +20047,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>83</v>
       </c>
@@ -20082,7 +20088,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>418</v>
       </c>
@@ -20123,7 +20129,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>418</v>
       </c>
@@ -20164,7 +20170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>418</v>
       </c>
@@ -20205,7 +20211,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>418</v>
       </c>
@@ -20246,7 +20252,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>418</v>
       </c>
@@ -20287,7 +20293,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>41</v>
       </c>
@@ -20325,7 +20331,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>41</v>
       </c>
@@ -20363,7 +20369,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1210</v>
       </c>
@@ -20404,7 +20410,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1210</v>
       </c>
@@ -20445,7 +20451,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1210</v>
       </c>
@@ -20486,7 +20492,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1210</v>
       </c>
@@ -20527,7 +20533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1210</v>
       </c>
@@ -20568,7 +20574,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1210</v>
       </c>
@@ -20609,7 +20615,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>101</v>
       </c>
@@ -20647,7 +20653,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>101</v>
       </c>
@@ -20685,7 +20691,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>91</v>
       </c>
@@ -20726,7 +20732,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>91</v>
       </c>
@@ -20767,7 +20773,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>418</v>
       </c>
@@ -20808,7 +20814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>41</v>
       </c>
@@ -20846,7 +20852,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>41</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>50</v>
       </c>
@@ -20925,7 +20931,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>565</v>
       </c>
@@ -20963,7 +20969,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>101</v>
       </c>
@@ -21001,7 +21007,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>168</v>
       </c>
@@ -21039,7 +21045,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>13</v>
       </c>
@@ -21077,7 +21083,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>41</v>
       </c>
@@ -21115,7 +21121,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -21153,7 +21159,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>246</v>
       </c>
@@ -21191,7 +21197,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>41</v>
       </c>
@@ -21229,7 +21235,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>41</v>
       </c>
@@ -21267,7 +21273,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>41</v>
       </c>
@@ -21305,7 +21311,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -21343,7 +21349,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>41</v>
       </c>
@@ -21381,7 +21387,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -21419,7 +21425,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>418</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1100</v>
       </c>
@@ -21501,7 +21507,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>24</v>
       </c>
@@ -21539,7 +21545,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>130</v>
       </c>
@@ -21580,7 +21586,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>41</v>
       </c>
@@ -21618,7 +21624,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>41</v>
       </c>
@@ -21656,7 +21662,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -21694,7 +21700,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>246</v>
       </c>
@@ -21732,7 +21738,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>418</v>
       </c>
@@ -21773,7 +21779,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -21811,7 +21817,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>101</v>
       </c>
@@ -21849,7 +21855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>330</v>
       </c>
@@ -21887,7 +21893,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>130</v>
       </c>
@@ -21928,7 +21934,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>41</v>
       </c>
@@ -21966,7 +21972,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>41</v>
       </c>
@@ -22004,7 +22010,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1454</v>
       </c>
@@ -22045,7 +22051,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>13</v>
       </c>
@@ -22083,7 +22089,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>246</v>
       </c>
@@ -22121,7 +22127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>41</v>
       </c>
@@ -22159,7 +22165,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1100</v>
       </c>
@@ -22200,7 +22206,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>246</v>
       </c>
@@ -22238,7 +22244,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>41</v>
       </c>
@@ -22276,7 +22282,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>310</v>
       </c>
@@ -22317,7 +22323,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>41</v>
       </c>
@@ -22355,7 +22361,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>41</v>
       </c>
@@ -22393,7 +22399,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>418</v>
       </c>
@@ -22434,7 +22440,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>418</v>
       </c>
@@ -22475,7 +22481,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>91</v>
       </c>
@@ -22516,7 +22522,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -22554,7 +22560,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>130</v>
       </c>
@@ -22595,7 +22601,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -22633,7 +22639,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>91</v>
       </c>
@@ -22674,7 +22680,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>91</v>
       </c>
@@ -22715,7 +22721,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>91</v>
       </c>
@@ -22756,7 +22762,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>91</v>
       </c>
@@ -22797,7 +22803,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>91</v>
       </c>
@@ -22838,7 +22844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>91</v>
       </c>
@@ -22879,7 +22885,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>41</v>
       </c>
@@ -22917,7 +22923,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>50</v>
       </c>
@@ -22958,7 +22964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>41</v>
       </c>
@@ -22996,7 +23002,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>50</v>
       </c>
@@ -23037,7 +23043,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>50</v>
       </c>
@@ -23078,7 +23084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>330</v>
       </c>
@@ -23116,7 +23122,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>50</v>
       </c>
@@ -23157,7 +23163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>418</v>
       </c>
@@ -23198,7 +23204,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>91</v>
       </c>
@@ -23239,7 +23245,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>461</v>
       </c>
@@ -23280,7 +23286,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>168</v>
       </c>
@@ -23318,7 +23324,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>41</v>
       </c>
@@ -23356,7 +23362,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>41</v>
       </c>
@@ -23394,7 +23400,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>168</v>
       </c>
@@ -23432,7 +23438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>41</v>
       </c>
@@ -23470,7 +23476,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>41</v>
       </c>
@@ -23508,7 +23514,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>41</v>
       </c>
@@ -23546,7 +23552,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>418</v>
       </c>
@@ -23587,7 +23593,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>418</v>
       </c>
@@ -23628,7 +23634,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>13</v>
       </c>
@@ -23666,7 +23672,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>101</v>
       </c>
@@ -23704,7 +23710,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>418</v>
       </c>
@@ -23745,7 +23751,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>130</v>
       </c>
@@ -23786,7 +23792,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>41</v>
       </c>
@@ -23824,7 +23830,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>41</v>
       </c>
@@ -23862,7 +23868,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>83</v>
       </c>
@@ -23903,7 +23909,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>322</v>
       </c>
@@ -23938,7 +23944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>41</v>
       </c>
@@ -23976,7 +23982,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>91</v>
       </c>
@@ -24017,7 +24023,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>41</v>
       </c>
@@ -24055,7 +24061,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>91</v>
       </c>
@@ -24096,7 +24102,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>41</v>
       </c>
@@ -24134,7 +24140,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -24172,7 +24178,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>41</v>
       </c>
@@ -24210,7 +24216,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>403</v>
       </c>
@@ -24251,7 +24257,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>246</v>
       </c>
@@ -24289,7 +24295,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>418</v>
       </c>
@@ -24330,7 +24336,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>246</v>
       </c>
@@ -24368,7 +24374,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>13</v>
       </c>
@@ -24406,7 +24412,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>418</v>
       </c>
@@ -24447,7 +24453,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>246</v>
       </c>
@@ -24485,7 +24491,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>91</v>
       </c>
@@ -24526,7 +24532,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>101</v>
       </c>
@@ -24564,7 +24570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>418</v>
       </c>
@@ -24605,7 +24611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>183</v>
       </c>
@@ -24643,7 +24649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>220</v>
       </c>
@@ -24681,7 +24687,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>41</v>
       </c>
@@ -24719,7 +24725,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>101</v>
       </c>
@@ -24757,7 +24763,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>168</v>
       </c>
@@ -24795,7 +24801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1454</v>
       </c>
@@ -24833,7 +24839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>168</v>
       </c>
@@ -24871,7 +24877,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -24909,7 +24915,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>41</v>
       </c>
@@ -24947,7 +24953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>322</v>
       </c>
@@ -24982,7 +24988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>246</v>
       </c>
@@ -25020,7 +25026,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>13</v>
       </c>
@@ -25058,7 +25064,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>275</v>
       </c>
@@ -25099,7 +25105,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -25137,7 +25143,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>246</v>
       </c>
@@ -25172,7 +25178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>246</v>
       </c>
@@ -25207,7 +25213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -25245,7 +25251,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>168</v>
       </c>
@@ -25283,7 +25289,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -25321,7 +25327,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>330</v>
       </c>
@@ -25359,7 +25365,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -25397,7 +25403,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>461</v>
       </c>
@@ -25438,7 +25444,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>330</v>
       </c>
@@ -25476,7 +25482,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>259</v>
       </c>
@@ -25514,7 +25520,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -25552,7 +25558,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>275</v>
       </c>
@@ -25593,7 +25599,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>41</v>
       </c>
@@ -25631,7 +25637,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>168</v>
       </c>
@@ -25669,7 +25675,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>24</v>
       </c>
@@ -25707,7 +25713,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>130</v>
       </c>
@@ -25748,7 +25754,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>330</v>
       </c>
@@ -25786,7 +25792,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>101</v>
       </c>
@@ -25824,7 +25830,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>41</v>
       </c>
@@ -25862,7 +25868,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>41</v>
       </c>
@@ -25900,7 +25906,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>41</v>
       </c>
@@ -25938,7 +25944,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -25976,7 +25982,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>41</v>
       </c>
@@ -26014,7 +26020,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>275</v>
       </c>
@@ -26055,7 +26061,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>83</v>
       </c>
@@ -26096,7 +26102,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>565</v>
       </c>
@@ -26134,7 +26140,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>13</v>
       </c>
@@ -26172,7 +26178,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -26210,7 +26216,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>330</v>
       </c>
@@ -26248,7 +26254,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>246</v>
       </c>
@@ -26286,7 +26292,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>246</v>
       </c>
@@ -26324,7 +26330,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>101</v>
       </c>
@@ -26362,7 +26368,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>246</v>
       </c>
@@ -26400,7 +26406,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>246</v>
       </c>
@@ -26435,7 +26441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>101</v>
       </c>
@@ -26473,7 +26479,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1210</v>
       </c>
@@ -26514,7 +26520,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1210</v>
       </c>
@@ -26555,7 +26561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>101</v>
       </c>
@@ -26593,7 +26599,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -26631,7 +26637,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>24</v>
       </c>
@@ -26669,7 +26675,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>41</v>
       </c>
@@ -26707,7 +26713,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>41</v>
       </c>
@@ -26745,7 +26751,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>220</v>
       </c>
@@ -26783,7 +26789,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>565</v>
       </c>
@@ -26821,7 +26827,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>168</v>
       </c>
@@ -26859,7 +26865,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>41</v>
       </c>
@@ -26897,7 +26903,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>101</v>
       </c>
@@ -26935,7 +26941,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>387</v>
       </c>
@@ -26976,7 +26982,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>330</v>
       </c>
@@ -27014,7 +27020,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>41</v>
       </c>
@@ -27052,7 +27058,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>41</v>
       </c>
@@ -27090,7 +27096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>41</v>
       </c>
@@ -27128,7 +27134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>41</v>
       </c>
@@ -27166,7 +27172,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>41</v>
       </c>
@@ -27204,7 +27210,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>41</v>
       </c>
@@ -27242,7 +27248,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>246</v>
       </c>
@@ -27280,7 +27286,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>246</v>
       </c>
@@ -27315,7 +27321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>41</v>
       </c>
@@ -27353,7 +27359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>168</v>
       </c>
@@ -27391,7 +27397,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>330</v>
       </c>
@@ -27429,7 +27435,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>41</v>
       </c>
@@ -27467,7 +27473,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -27505,7 +27511,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>13</v>
       </c>
@@ -27543,7 +27549,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>41</v>
       </c>
@@ -27581,7 +27587,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>13</v>
       </c>
@@ -27619,7 +27625,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>41</v>
       </c>
@@ -27657,7 +27663,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1100</v>
       </c>
@@ -27698,7 +27704,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>41</v>
       </c>
@@ -27736,7 +27742,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>246</v>
       </c>
@@ -27774,7 +27780,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>403</v>
       </c>
@@ -27815,7 +27821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>41</v>
       </c>
@@ -27853,7 +27859,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>246</v>
       </c>
@@ -27891,7 +27897,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>41</v>
       </c>
@@ -27929,7 +27935,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>41</v>
       </c>
@@ -27967,7 +27973,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1454</v>
       </c>
@@ -28008,7 +28014,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>41</v>
       </c>
@@ -28046,7 +28052,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>246</v>
       </c>
@@ -28084,7 +28090,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>130</v>
       </c>
@@ -28125,7 +28131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>330</v>
       </c>
@@ -28163,7 +28169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -28201,7 +28207,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>41</v>
       </c>
@@ -28239,7 +28245,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>101</v>
       </c>
@@ -28277,7 +28283,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>101</v>
       </c>
@@ -28315,7 +28321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>168</v>
       </c>
@@ -28353,7 +28359,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>41</v>
       </c>
@@ -28391,7 +28397,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>220</v>
       </c>
@@ -28429,7 +28435,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>41</v>
       </c>
@@ -28467,7 +28473,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>474</v>
       </c>
@@ -28508,7 +28514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>13</v>
       </c>
@@ -28546,7 +28552,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1454</v>
       </c>
@@ -28587,7 +28593,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>168</v>
       </c>
@@ -28625,7 +28631,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>13</v>
       </c>
@@ -28663,7 +28669,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>101</v>
       </c>
@@ -28701,7 +28707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>13</v>
       </c>
@@ -28739,7 +28745,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>2058</v>
       </c>
@@ -28780,7 +28786,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>41</v>
       </c>
@@ -28818,7 +28824,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -28856,7 +28862,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>41</v>
       </c>
@@ -28894,7 +28900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>246</v>
       </c>
@@ -28932,7 +28938,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>246</v>
       </c>
@@ -28970,7 +28976,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>101</v>
       </c>
@@ -29008,7 +29014,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>2058</v>
       </c>
@@ -29049,7 +29055,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>41</v>
       </c>
@@ -29087,7 +29093,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>330</v>
       </c>
@@ -29125,7 +29131,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>330</v>
       </c>
@@ -29163,7 +29169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>41</v>
       </c>
@@ -29201,7 +29207,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>41</v>
       </c>
@@ -29239,7 +29245,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>41</v>
       </c>
@@ -29277,7 +29283,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>101</v>
       </c>
@@ -29315,7 +29321,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>101</v>
       </c>
@@ -29353,7 +29359,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>41</v>
       </c>
@@ -29391,7 +29397,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>41</v>
       </c>
@@ -29429,7 +29435,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -29467,7 +29473,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>474</v>
       </c>
@@ -29508,7 +29514,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>13</v>
       </c>
@@ -29546,7 +29552,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>275</v>
       </c>
@@ -29587,7 +29593,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>275</v>
       </c>
@@ -29628,7 +29634,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>387</v>
       </c>
@@ -29669,7 +29675,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>330</v>
       </c>
@@ -29707,7 +29713,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>101</v>
       </c>
@@ -29745,7 +29751,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>41</v>
       </c>
@@ -29783,7 +29789,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>246</v>
       </c>
@@ -29821,7 +29827,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>13</v>
       </c>
@@ -29859,7 +29865,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1454</v>
       </c>
@@ -29900,7 +29906,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>67</v>
       </c>
@@ -29941,7 +29947,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -29979,7 +29985,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>13</v>
       </c>
@@ -30017,7 +30023,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>161</v>
       </c>
@@ -30058,7 +30064,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>13</v>
       </c>
@@ -30096,7 +30102,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -30134,7 +30140,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>403</v>
       </c>
@@ -30175,7 +30181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>2186</v>
       </c>
@@ -30216,7 +30222,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>41</v>
       </c>
@@ -30254,7 +30260,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -30292,7 +30298,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>403</v>
       </c>
@@ -30333,7 +30339,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>2186</v>
       </c>
@@ -30374,7 +30380,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>168</v>
       </c>
@@ -30412,7 +30418,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -30450,7 +30456,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>461</v>
       </c>
@@ -30491,7 +30497,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>13</v>
       </c>
@@ -30529,7 +30535,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>83</v>
       </c>
@@ -30570,7 +30576,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>41</v>
       </c>
@@ -30608,7 +30614,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>13</v>
       </c>
@@ -30646,7 +30652,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>13</v>
       </c>
@@ -30684,7 +30690,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>101</v>
       </c>
@@ -30722,7 +30728,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>418</v>
       </c>
@@ -30763,7 +30769,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>13</v>
       </c>
@@ -30801,7 +30807,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -30839,7 +30845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>13</v>
       </c>
@@ -30877,7 +30883,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>13</v>
       </c>
@@ -30915,7 +30921,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>246</v>
       </c>
@@ -30950,7 +30956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>220</v>
       </c>
@@ -30988,7 +30994,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>246</v>
       </c>
@@ -31023,7 +31029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>161</v>
       </c>
@@ -31064,7 +31070,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -31102,7 +31108,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>168</v>
       </c>
@@ -31140,7 +31146,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>41</v>
       </c>
@@ -31178,7 +31184,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>41</v>
       </c>
@@ -31216,7 +31222,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>220</v>
       </c>
@@ -31254,7 +31260,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>161</v>
       </c>
@@ -31295,7 +31301,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -31333,7 +31339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>2291</v>
       </c>
@@ -31374,7 +31380,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>387</v>
       </c>
@@ -31415,7 +31421,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>246</v>
       </c>
@@ -31453,7 +31459,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -31491,7 +31497,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>330</v>
       </c>
@@ -31529,7 +31535,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>330</v>
       </c>
@@ -31567,7 +31573,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>13</v>
       </c>
@@ -31605,7 +31611,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>101</v>
       </c>
@@ -31643,7 +31649,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1125</v>
       </c>
@@ -31684,7 +31690,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>387</v>
       </c>
@@ -31725,7 +31731,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>330</v>
       </c>
@@ -31763,7 +31769,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>246</v>
       </c>
@@ -31798,7 +31804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>2186</v>
       </c>
@@ -31839,7 +31845,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>275</v>
       </c>
@@ -31880,7 +31886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>259</v>
       </c>
@@ -31918,7 +31924,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>259</v>
       </c>
@@ -31956,7 +31962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>13</v>
       </c>
@@ -31994,7 +32000,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>259</v>
       </c>
@@ -32032,7 +32038,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>246</v>
       </c>
@@ -32070,7 +32076,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>220</v>
       </c>
@@ -32108,7 +32114,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>13</v>
       </c>
@@ -32146,7 +32152,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>2357</v>
       </c>
@@ -32184,7 +32190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>923</v>
       </c>
@@ -32225,7 +32231,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>923</v>
       </c>
@@ -32266,7 +32272,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>923</v>
       </c>
@@ -32307,7 +32313,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>50</v>
       </c>
@@ -32348,7 +32354,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>246</v>
       </c>
@@ -32386,7 +32392,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>220</v>
       </c>
@@ -32424,7 +32430,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>13</v>
       </c>
@@ -32462,7 +32468,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>2395</v>
       </c>
@@ -32500,7 +32506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>2395</v>
       </c>
@@ -32538,7 +32544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>2395</v>
       </c>
@@ -32576,7 +32582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>2395</v>
       </c>
@@ -32614,7 +32620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>2395</v>
       </c>
@@ -32652,7 +32658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>2395</v>
       </c>
@@ -32690,7 +32696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>2395</v>
       </c>
@@ -32728,7 +32734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>2395</v>
       </c>
@@ -32766,7 +32772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>2395</v>
       </c>
@@ -32804,7 +32810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>2395</v>
       </c>
@@ -32842,7 +32848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>2395</v>
       </c>
@@ -32880,7 +32886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>2395</v>
       </c>
@@ -32918,7 +32924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>2395</v>
       </c>
@@ -32956,7 +32962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>2395</v>
       </c>
@@ -32994,7 +33000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>2395</v>
       </c>
@@ -33032,7 +33038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>2395</v>
       </c>
@@ -33070,7 +33076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>2395</v>
       </c>
@@ -33108,7 +33114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>2395</v>
       </c>
@@ -33146,7 +33152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>2395</v>
       </c>
@@ -33184,7 +33190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>2395</v>
       </c>
@@ -33222,7 +33228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>2395</v>
       </c>
@@ -33260,7 +33266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>2395</v>
       </c>
@@ -33298,7 +33304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>2395</v>
       </c>
@@ -33336,7 +33342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>2395</v>
       </c>
@@ -33374,7 +33380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>2395</v>
       </c>
@@ -33412,7 +33418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>2395</v>
       </c>
@@ -33450,7 +33456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>2395</v>
       </c>
@@ -33488,7 +33494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>2395</v>
       </c>
@@ -33526,7 +33532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>2395</v>
       </c>
@@ -33564,7 +33570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>2395</v>
       </c>
@@ -33602,7 +33608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>2395</v>
       </c>
@@ -33640,7 +33646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>2395</v>
       </c>
@@ -33678,7 +33684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>2395</v>
       </c>
@@ -33716,7 +33722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>2395</v>
       </c>
@@ -33754,7 +33760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>2395</v>
       </c>
@@ -33792,7 +33798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>2395</v>
       </c>
@@ -33830,7 +33836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>2395</v>
       </c>
@@ -33868,7 +33874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>2395</v>
       </c>
@@ -33906,7 +33912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>2395</v>
       </c>
@@ -33944,7 +33950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>2395</v>
       </c>
@@ -33982,7 +33988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2395</v>
       </c>
@@ -34020,7 +34026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>2395</v>
       </c>
@@ -34058,7 +34064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2395</v>
       </c>
@@ -34096,7 +34102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>2395</v>
       </c>
@@ -34134,7 +34140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>2395</v>
       </c>
@@ -34172,7 +34178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>2395</v>
       </c>
@@ -34210,7 +34216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>2395</v>
       </c>
@@ -34248,7 +34254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>2395</v>
       </c>
@@ -34286,7 +34292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>2395</v>
       </c>
@@ -34324,7 +34330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>2395</v>
       </c>
@@ -34362,7 +34368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>2395</v>
       </c>
@@ -34400,7 +34406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>2395</v>
       </c>
@@ -34438,7 +34444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>2395</v>
       </c>
@@ -34476,7 +34482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>2395</v>
       </c>
@@ -34514,7 +34520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>2395</v>
       </c>
@@ -34552,7 +34558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>2395</v>
       </c>
@@ -34590,7 +34596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>2395</v>
       </c>
@@ -34628,7 +34634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>2395</v>
       </c>
@@ -34666,7 +34672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>2395</v>
       </c>
@@ -34704,7 +34710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>2395</v>
       </c>
@@ -34742,7 +34748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>2395</v>
       </c>
@@ -34780,7 +34786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>2395</v>
       </c>
@@ -34818,7 +34824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>2395</v>
       </c>
@@ -34856,7 +34862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>2395</v>
       </c>
@@ -34894,7 +34900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>2395</v>
       </c>
@@ -34932,7 +34938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>2395</v>
       </c>
@@ -34970,7 +34976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>2395</v>
       </c>
@@ -35008,7 +35014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>2395</v>
       </c>
@@ -35046,7 +35052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>2395</v>
       </c>
@@ -35084,7 +35090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2395</v>
       </c>
@@ -35122,7 +35128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2395</v>
       </c>
@@ -35160,7 +35166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>2395</v>
       </c>
@@ -35198,7 +35204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>2395</v>
       </c>
@@ -35270,6 +35276,9 @@
       <c r="K694" t="s">
         <v>2632</v>
       </c>
+      <c r="L694" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
@@ -35305,6 +35314,9 @@
       <c r="K695" t="s">
         <v>2632</v>
       </c>
+      <c r="L695" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
@@ -35340,8 +35352,16 @@
       <c r="K696" t="s">
         <v>2632</v>
       </c>
+      <c r="L696" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M696" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -35351,9 +35371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
